--- a/アクター・権限一覧.xlsx
+++ b/アクター・権限一覧.xlsx
@@ -85,7 +85,7 @@
     <t>○</t>
   </si>
   <si>
-    <t>販売担当</t>
+    <t>販売担当者</t>
   </si>
   <si>
     <t>販売中でないものも含めた商品の管理画面の閲覧が可能。</t>
